--- a/SampleData1.xlsx
+++ b/SampleData1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penta\OneDrive\Desktop\Python Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501E5269-8018-435D-8EF7-65786EA8692A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51000FB9-8527-47F6-9A94-6651FBFCAE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="60">
   <si>
     <t>Region</t>
   </si>
@@ -477,8 +477,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{15AAB8BA-990B-4120-9E3B-82D9B4790568}" name="Table13" displayName="Table13" ref="A1:G44" totalsRowShown="0">
-  <autoFilter ref="A1:G44" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{15AAB8BA-990B-4120-9E3B-82D9B4790568}" name="Table13" displayName="Table13" ref="A1:G45" totalsRowShown="0">
+  <autoFilter ref="A1:G45" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{5E755246-5475-468A-A1B6-40BD9FCFAF34}" name="OrderDate" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{FAFD2296-C7F0-4D19-8DD4-E4771E94664A}" name="Region"/>
@@ -1996,11 +1996,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840AB945-6DA3-4A21-AF1A-269A2AD5D7A1}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.6" x14ac:dyDescent="0.5"/>
@@ -3024,6 +3024,29 @@
         <v>4.99</v>
       </c>
       <c r="G44" s="17">
+        <v>139.72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A45" s="19">
+        <v>46377</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="13">
+        <v>28</v>
+      </c>
+      <c r="F45" s="17">
+        <v>4.99</v>
+      </c>
+      <c r="G45" s="17">
         <v>139.72</v>
       </c>
     </row>
